--- a/notebooks/ARMC12/input/ARMC12_SPG90_individuals.xlsx
+++ b/notebooks/ARMC12/input/ARMC12_SPG90_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ARMC12/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917132E-0AEF-E54B-AF24-E66558DCA304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C50A1-3EAC-1E4C-AD4D-5F1E1275AB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="7600" windowWidth="22540" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>PMID</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>HP:0030345</t>
+  </si>
+  <si>
+    <t>Oligozoospermia</t>
+  </si>
+  <si>
+    <t>HP:0000798</t>
   </si>
 </sst>
 </file>
@@ -549,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:U5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +627,11 @@
       <c r="U1" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -686,8 +695,11 @@
       <c r="U2" t="s">
         <v>50</v>
       </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -748,8 +760,11 @@
       <c r="U3" t="s">
         <v>48</v>
       </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -807,8 +822,11 @@
       <c r="U4" t="s">
         <v>48</v>
       </c>
+      <c r="V4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -867,6 +885,9 @@
         <v>48</v>
       </c>
       <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
         <v>48</v>
       </c>
     </row>
